--- a/data/trans_orig/P1418-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1418-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67CBD681-A7FB-4849-83D8-E6F7303BA8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E59235FC-1A81-48AC-95ED-DA469AC6027E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{22DFB35C-3F7A-4626-B092-2F09A8E3A22B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{50263320-80E9-4119-AC40-FD4F05D5A2ED}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="502">
   <si>
     <t>Población con diagnóstico de mala circulación en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1414 +95,1453 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,83%</t>
+    <t>1,0%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>0,1%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de mala circulación en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de mala circulación en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de mala circulación en 2023 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
   </si>
   <si>
     <t>99,09%</t>
   </si>
   <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
   </si>
   <si>
     <t>91,51%</t>
   </si>
   <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de mala circulación en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
   </si>
   <si>
     <t>92,88%</t>
   </si>
   <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de mala circulación en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de mala circulación en 2023 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
+    <t>91,56%</t>
   </si>
   <si>
     <t>93,58%</t>
@@ -1917,7 +1956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620770C5-EEDE-4A3F-B349-040A2277F2E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D4BE5F-F27C-427E-B09B-B371161B1AF9}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2507,10 +2546,10 @@
         <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -2519,13 +2558,13 @@
         <v>37573</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -2534,13 +2573,13 @@
         <v>49855</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,13 +2594,13 @@
         <v>626386</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>622</v>
@@ -2570,13 +2609,13 @@
         <v>652171</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>1223</v>
@@ -2585,13 +2624,13 @@
         <v>1278557</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,7 +2686,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2665,7 +2704,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2710,13 +2749,13 @@
         <v>26337</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -2725,13 +2764,13 @@
         <v>50878</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>73</v>
@@ -2740,13 +2779,13 @@
         <v>77216</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2761,13 +2800,13 @@
         <v>492810</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H18" s="7">
         <v>453</v>
@@ -2776,13 +2815,13 @@
         <v>464764</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M18" s="7">
         <v>913</v>
@@ -2791,13 +2830,13 @@
         <v>957573</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,7 +2892,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2871,7 +2910,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2886,7 +2925,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2901,7 +2940,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2916,13 +2955,13 @@
         <v>45002</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H21" s="7">
         <v>48</v>
@@ -2931,13 +2970,13 @@
         <v>48072</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M21" s="7">
         <v>94</v>
@@ -2946,13 +2985,13 @@
         <v>93074</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2967,13 +3006,13 @@
         <v>341708</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>348</v>
@@ -2982,13 +3021,13 @@
         <v>355914</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>694</v>
@@ -2997,13 +3036,13 @@
         <v>697622</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,7 +3098,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3077,7 +3116,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3107,7 +3146,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,13 +3161,13 @@
         <v>88495</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H25" s="7">
         <v>180</v>
@@ -3137,13 +3176,13 @@
         <v>186799</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M25" s="7">
         <v>274</v>
@@ -3152,13 +3191,13 @@
         <v>275295</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3212,13 @@
         <v>413971</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H26" s="7">
         <v>481</v>
@@ -3188,13 +3227,13 @@
         <v>490043</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M26" s="7">
         <v>910</v>
@@ -3203,13 +3242,13 @@
         <v>904013</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,7 +3322,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3298,7 +3337,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3313,7 +3352,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3367,13 @@
         <v>179083</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H29" s="7">
         <v>331</v>
@@ -3343,13 +3382,13 @@
         <v>343152</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M29" s="7">
         <v>514</v>
@@ -3358,13 +3397,13 @@
         <v>522235</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,13 +3418,13 @@
         <v>3097461</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H30" s="7">
         <v>2966</v>
@@ -3394,28 +3433,28 @@
         <v>3036046</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M30" s="7">
         <v>5997</v>
       </c>
       <c r="N30" s="7">
-        <v>6133505</v>
+        <v>6133506</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,7 +3496,7 @@
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>33</v>
@@ -3471,7 +3510,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3493,7 +3532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659E91A2-74D5-417D-8BE4-B671093852A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DABDA1F-4C3F-4324-8771-64A95267E252}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3510,7 +3549,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3623,7 +3662,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3638,7 +3677,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3653,7 +3692,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,7 +3713,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3683,13 +3722,13 @@
         <v>978</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3698,13 +3737,13 @@
         <v>978</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,7 +3761,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>33</v>
@@ -3734,10 +3773,10 @@
         <v>429252</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>26</v>
@@ -3749,10 +3788,10 @@
         <v>883398</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>26</v>
@@ -3844,7 +3883,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3874,13 +3913,13 @@
         <v>2805</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -3889,13 +3928,13 @@
         <v>5879</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -3904,13 +3943,13 @@
         <v>8684</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>179</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +3964,13 @@
         <v>684282</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H10" s="7">
         <v>565</v>
@@ -3940,13 +3979,13 @@
         <v>604376</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M10" s="7">
         <v>1229</v>
@@ -3955,13 +3994,13 @@
         <v>1288658</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4119,13 @@
         <v>3844</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -4095,13 +4134,13 @@
         <v>28842</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -4110,13 +4149,13 @@
         <v>32687</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>60</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4131,13 +4170,13 @@
         <v>678019</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>640</v>
@@ -4146,13 +4185,13 @@
         <v>680732</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M14" s="7">
         <v>1288</v>
@@ -4161,13 +4200,13 @@
         <v>1358750</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>206</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>52</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,7 +4262,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4241,7 +4280,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>200</v>
+        <v>39</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4256,7 +4295,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4271,7 +4310,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,13 +4325,13 @@
         <v>10647</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="H17" s="7">
         <v>35</v>
@@ -4301,13 +4340,13 @@
         <v>38187</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -4316,13 +4355,13 @@
         <v>48835</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>216</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,13 +4376,13 @@
         <v>603970</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>219</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>47</v>
+        <v>221</v>
       </c>
       <c r="H18" s="7">
         <v>502</v>
@@ -4352,13 +4391,13 @@
         <v>575030</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="M18" s="7">
         <v>1041</v>
@@ -4367,13 +4406,13 @@
         <v>1178999</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>71</v>
+        <v>225</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,7 +4468,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4447,7 +4486,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4462,7 +4501,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4477,7 +4516,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,13 +4531,13 @@
         <v>14355</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="H21" s="7">
         <v>54</v>
@@ -4507,13 +4546,13 @@
         <v>58737</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="M21" s="7">
         <v>68</v>
@@ -4522,13 +4561,13 @@
         <v>73092</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,13 +4582,13 @@
         <v>415074</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="H22" s="7">
         <v>352</v>
@@ -4558,13 +4597,13 @@
         <v>389063</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="M22" s="7">
         <v>731</v>
@@ -4573,13 +4612,13 @@
         <v>804137</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,7 +4674,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4668,7 +4707,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4683,7 +4722,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,13 +4737,13 @@
         <v>75239</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="H25" s="7">
         <v>196</v>
@@ -4713,13 +4752,13 @@
         <v>213209</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="M25" s="7">
         <v>265</v>
@@ -4728,13 +4767,13 @@
         <v>288448</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4788,13 @@
         <v>484398</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="H26" s="7">
         <v>498</v>
@@ -4764,13 +4803,13 @@
         <v>529766</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="M26" s="7">
         <v>933</v>
@@ -4779,13 +4818,13 @@
         <v>1014164</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,7 +4898,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4874,7 +4913,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4889,7 +4928,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4943,13 @@
         <v>106891</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="H29" s="7">
         <v>318</v>
@@ -4919,13 +4958,13 @@
         <v>345832</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="M29" s="7">
         <v>416</v>
@@ -4934,13 +4973,13 @@
         <v>452724</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4994,13 @@
         <v>3319888</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="H30" s="7">
         <v>2977</v>
@@ -4970,28 +5009,28 @@
         <v>3208220</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="M30" s="7">
         <v>6088</v>
       </c>
       <c r="N30" s="7">
-        <v>6528106</v>
+        <v>6528107</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,7 +5072,7 @@
         <v>6504</v>
       </c>
       <c r="N31" s="7">
-        <v>6980830</v>
+        <v>6980831</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>33</v>
@@ -5047,7 +5086,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -5069,7 +5108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AEC9DB-836F-44E8-995D-343895156F6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D618C783-DACB-4E9C-92FF-85F499C6877B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5086,7 +5125,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5199,7 +5238,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5214,7 +5253,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5229,7 +5268,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,7 +5289,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5265,7 +5304,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -5274,13 +5313,13 @@
         <v>1112</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,10 +5334,10 @@
         <v>418351</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -5313,7 +5352,7 @@
         <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>33</v>
@@ -5325,10 +5364,10 @@
         <v>814106</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>26</v>
@@ -5405,7 +5444,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5420,7 +5459,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5450,13 +5489,13 @@
         <v>951</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -5465,13 +5504,13 @@
         <v>7152</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -5480,13 +5519,13 @@
         <v>8104</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5501,10 +5540,10 @@
         <v>589545</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -5516,13 +5555,13 @@
         <v>556392</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="M10" s="7">
         <v>1138</v>
@@ -5531,13 +5570,13 @@
         <v>1145936</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,7 +5650,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5662,7 +5701,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -5671,13 +5710,13 @@
         <v>17328</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -5686,13 +5725,13 @@
         <v>17328</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,7 +5749,7 @@
         <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>33</v>
@@ -5722,13 +5761,13 @@
         <v>644058</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="M14" s="7">
         <v>1285</v>
@@ -5737,13 +5776,13 @@
         <v>1313155</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,7 +5838,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5817,7 +5856,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5847,7 +5886,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,13 +5901,13 @@
         <v>11297</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>307</v>
+        <v>211</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -5877,13 +5916,13 @@
         <v>25052</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -5892,13 +5931,13 @@
         <v>36348</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,13 +5952,13 @@
         <v>634751</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>261</v>
+        <v>328</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>315</v>
+        <v>221</v>
       </c>
       <c r="H18" s="7">
         <v>579</v>
@@ -5928,28 +5967,28 @@
         <v>624025</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>317</v>
+        <v>96</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="M18" s="7">
         <v>1151</v>
       </c>
       <c r="N18" s="7">
-        <v>1258777</v>
+        <v>1258778</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,7 +6030,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>33</v>
@@ -6005,7 +6044,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6023,7 +6062,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6038,7 +6077,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6053,7 +6092,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,13 +6107,13 @@
         <v>13978</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="H21" s="7">
         <v>43</v>
@@ -6083,13 +6122,13 @@
         <v>48484</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>327</v>
+        <v>81</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="M21" s="7">
         <v>55</v>
@@ -6098,13 +6137,13 @@
         <v>62462</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,13 +6158,13 @@
         <v>463940</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="H22" s="7">
         <v>390</v>
@@ -6134,13 +6173,13 @@
         <v>448365</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>337</v>
+        <v>89</v>
       </c>
       <c r="M22" s="7">
         <v>802</v>
@@ -6149,13 +6188,13 @@
         <v>912305</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,7 +6250,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6274,13 +6313,13 @@
         <v>54374</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>341</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H25" s="7">
         <v>130</v>
@@ -6289,13 +6328,13 @@
         <v>155107</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="M25" s="7">
         <v>188</v>
@@ -6304,13 +6343,13 @@
         <v>209482</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6364,13 @@
         <v>536954</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>350</v>
+        <v>156</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="H26" s="7">
         <v>525</v>
@@ -6340,13 +6379,13 @@
         <v>622824</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="M26" s="7">
         <v>1094</v>
@@ -6355,13 +6394,13 @@
         <v>1159777</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,7 +6474,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6450,7 +6489,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6465,7 +6504,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,13 +6519,13 @@
         <v>81712</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>361</v>
+        <v>217</v>
       </c>
       <c r="H29" s="7">
         <v>221</v>
@@ -6495,13 +6534,13 @@
         <v>253123</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>147</v>
+        <v>369</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="M29" s="7">
         <v>303</v>
@@ -6510,13 +6549,13 @@
         <v>334835</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6531,13 +6570,13 @@
         <v>3312638</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>368</v>
+        <v>227</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="H30" s="7">
         <v>3117</v>
@@ -6546,13 +6585,13 @@
         <v>3291419</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>157</v>
+        <v>377</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="M30" s="7">
         <v>6266</v>
@@ -6561,13 +6600,13 @@
         <v>6604057</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6623,7 +6662,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -6645,7 +6684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC92BEF-043C-4F77-B597-4B5C7F3C3EF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7814FB7-7731-41F7-B86D-9EA1D33AB3E4}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6662,7 +6701,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6775,7 +6814,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6790,7 +6829,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>385</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6805,7 +6844,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6820,13 +6859,13 @@
         <v>3422</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>387</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -6835,13 +6874,13 @@
         <v>4938</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -6850,13 +6889,13 @@
         <v>8360</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>57</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6871,10 +6910,10 @@
         <v>374257</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>393</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -6886,10 +6925,10 @@
         <v>350019</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>26</v>
@@ -6901,13 +6940,13 @@
         <v>724276</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>388</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6981,7 +7020,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6990,13 +7029,13 @@
         <v>637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>399</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -7005,13 +7044,13 @@
         <v>637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>172</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7026,13 +7065,13 @@
         <v>1292</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -7041,13 +7080,13 @@
         <v>5354</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>194</v>
+        <v>403</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -7056,13 +7095,13 @@
         <v>6646</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>292</v>
+        <v>174</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>394</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7077,10 +7116,10 @@
         <v>427104</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -7092,13 +7131,13 @@
         <v>493063</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>407</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>408</v>
       </c>
       <c r="M10" s="7">
         <v>755</v>
@@ -7107,13 +7146,13 @@
         <v>920168</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7187,7 +7226,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>200</v>
+        <v>39</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7196,13 +7235,13 @@
         <v>27690</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>401</v>
+        <v>167</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7211,13 +7250,13 @@
         <v>27690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7232,13 +7271,13 @@
         <v>6107</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>174</v>
+        <v>416</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -7247,13 +7286,13 @@
         <v>19051</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -7262,13 +7301,13 @@
         <v>25158</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>411</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7283,13 +7322,13 @@
         <v>548624</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>423</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="H14" s="7">
         <v>815</v>
@@ -7298,13 +7337,13 @@
         <v>563547</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="M14" s="7">
         <v>1354</v>
@@ -7313,13 +7352,13 @@
         <v>1112171</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>419</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7375,7 +7414,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7402,13 +7441,13 @@
         <v>407</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7417,13 +7456,13 @@
         <v>407</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>272</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7438,13 +7477,13 @@
         <v>27454</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>421</v>
+        <v>63</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>380</v>
+        <v>433</v>
       </c>
       <c r="H17" s="7">
         <v>89</v>
@@ -7453,13 +7492,13 @@
         <v>62798</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="M17" s="7">
         <v>115</v>
@@ -7468,13 +7507,13 @@
         <v>90252</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7489,13 +7528,13 @@
         <v>695433</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>429</v>
+        <v>73</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>385</v>
+        <v>440</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="H18" s="7">
         <v>1047</v>
@@ -7504,13 +7543,13 @@
         <v>680968</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>156</v>
+        <v>442</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="M18" s="7">
         <v>1685</v>
@@ -7519,13 +7558,13 @@
         <v>1376402</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7581,7 +7620,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7608,13 +7647,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7623,13 +7662,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7644,13 +7683,13 @@
         <v>30006</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>439</v>
+        <v>67</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="H21" s="7">
         <v>96</v>
@@ -7659,13 +7698,13 @@
         <v>60053</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="M21" s="7">
         <v>129</v>
@@ -7677,10 +7716,10 @@
         <v>81</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>142</v>
+        <v>456</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7695,13 +7734,13 @@
         <v>569080</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>446</v>
+        <v>75</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="H22" s="7">
         <v>902</v>
@@ -7710,13 +7749,13 @@
         <v>532659</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="M22" s="7">
         <v>1531</v>
@@ -7725,13 +7764,13 @@
         <v>1101739</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>453</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7787,7 +7826,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7820,7 +7859,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7835,7 +7874,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7850,13 +7889,13 @@
         <v>79093</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="H25" s="7">
         <v>338</v>
@@ -7865,13 +7904,13 @@
         <v>182213</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="M25" s="7">
         <v>464</v>
@@ -7880,13 +7919,13 @@
         <v>261306</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>345</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7901,13 +7940,13 @@
         <v>617884</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="H26" s="7">
         <v>1367</v>
@@ -7916,13 +7955,13 @@
         <v>842797</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="M26" s="7">
         <v>2268</v>
@@ -7931,13 +7970,13 @@
         <v>1460681</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>355</v>
+        <v>242</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8011,7 +8050,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -8020,13 +8059,13 @@
         <v>31497</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>471</v>
+        <v>211</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>254</v>
+        <v>482</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -8035,13 +8074,13 @@
         <v>31497</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>420</v>
+        <v>483</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8056,13 +8095,13 @@
         <v>147374</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="H29" s="7">
         <v>559</v>
@@ -8071,28 +8110,28 @@
         <v>334408</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>477</v>
+        <v>215</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="M29" s="7">
         <v>751</v>
       </c>
       <c r="N29" s="7">
-        <v>481781</v>
+        <v>481782</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8107,13 +8146,13 @@
         <v>3232382</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="H30" s="7">
         <v>4790</v>
@@ -8122,28 +8161,28 @@
         <v>3463055</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="M30" s="7">
         <v>7969</v>
       </c>
       <c r="N30" s="7">
-        <v>6695437</v>
+        <v>6695438</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>268</v>
+        <v>499</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8185,7 +8224,7 @@
         <v>8726</v>
       </c>
       <c r="N31" s="7">
-        <v>7208715</v>
+        <v>7208716</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>33</v>
@@ -8199,7 +8238,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1418-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1418-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E59235FC-1A81-48AC-95ED-DA469AC6027E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9656D1FA-D207-49BE-A108-9BE53FDBCA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{50263320-80E9-4119-AC40-FD4F05D5A2ED}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{50C00FF1-70D2-4223-9A74-0907B0B9880F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="501">
   <si>
     <t>Población con diagnóstico de mala circulación en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1416 +95,1416 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,0%</t>
+    <t>0,84%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de mala circulación en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de mala circulación en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de mala circulación en 2023 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
   </si>
   <si>
     <t>3,8%</t>
   </si>
   <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
   </si>
   <si>
     <t>5,01%</t>
   </si>
   <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
   </si>
   <si>
     <t>94,99%</t>
   </si>
   <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de mala circulación en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
   </si>
   <si>
     <t>8,73%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de mala circulación en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de mala circulación en 2023 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
     <t>7,76%</t>
   </si>
   <si>
@@ -1536,9 +1536,6 @@
   </si>
   <si>
     <t>91,61%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
   </si>
   <si>
     <t>91,56%</t>
@@ -1956,7 +1953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D4BE5F-F27C-427E-B09B-B371161B1AF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A09941D-AF6E-4C2B-820F-59C601B1D07E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2337,13 +2334,13 @@
         <v>6145</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -2352,13 +2349,13 @@
         <v>17005</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -2367,13 +2364,13 @@
         <v>23150</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,13 +2385,13 @@
         <v>729344</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H10" s="7">
         <v>576</v>
@@ -2403,13 +2400,13 @@
         <v>608489</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M10" s="7">
         <v>1273</v>
@@ -2418,13 +2415,13 @@
         <v>1337832</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2480,7 +2477,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2498,7 +2495,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2513,7 +2510,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2543,13 +2540,13 @@
         <v>12282</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -2558,13 +2555,13 @@
         <v>37573</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -2573,13 +2570,13 @@
         <v>49855</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,13 +2591,13 @@
         <v>626386</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>622</v>
@@ -2609,13 +2606,13 @@
         <v>652171</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>1223</v>
@@ -2624,13 +2621,13 @@
         <v>1278557</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,7 +2683,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2704,7 +2701,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2749,13 +2746,13 @@
         <v>26337</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -2764,13 +2761,13 @@
         <v>50878</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>73</v>
@@ -2779,13 +2776,13 @@
         <v>77216</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,13 +2797,13 @@
         <v>492810</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H18" s="7">
         <v>453</v>
@@ -2815,13 +2812,13 @@
         <v>464764</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M18" s="7">
         <v>913</v>
@@ -2830,13 +2827,13 @@
         <v>957573</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2892,7 +2889,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2910,7 +2907,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2925,7 +2922,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2940,7 +2937,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,13 +2952,13 @@
         <v>45002</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H21" s="7">
         <v>48</v>
@@ -2970,13 +2967,13 @@
         <v>48072</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M21" s="7">
         <v>94</v>
@@ -2985,13 +2982,13 @@
         <v>93074</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +3003,13 @@
         <v>341708</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>348</v>
@@ -3021,13 +3018,13 @@
         <v>355914</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>694</v>
@@ -3036,13 +3033,13 @@
         <v>697622</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,7 +3095,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3116,7 +3113,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3131,7 +3128,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3146,7 +3143,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3158,13 @@
         <v>88495</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H25" s="7">
         <v>180</v>
@@ -3176,13 +3173,13 @@
         <v>186799</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M25" s="7">
         <v>274</v>
@@ -3191,13 +3188,13 @@
         <v>275295</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,13 +3209,13 @@
         <v>413971</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H26" s="7">
         <v>481</v>
@@ -3227,13 +3224,13 @@
         <v>490043</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M26" s="7">
         <v>910</v>
@@ -3242,13 +3239,13 @@
         <v>904013</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,7 +3319,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3337,7 +3334,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3352,7 +3349,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,13 +3364,13 @@
         <v>179083</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H29" s="7">
         <v>331</v>
@@ -3382,13 +3379,13 @@
         <v>343152</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M29" s="7">
         <v>514</v>
@@ -3397,13 +3394,13 @@
         <v>522235</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,16 +3412,16 @@
         <v>3031</v>
       </c>
       <c r="D30" s="7">
-        <v>3097461</v>
+        <v>3097460</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H30" s="7">
         <v>2966</v>
@@ -3433,13 +3430,13 @@
         <v>3036046</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M30" s="7">
         <v>5997</v>
@@ -3448,13 +3445,13 @@
         <v>6133506</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,7 +3463,7 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>33</v>
@@ -3510,7 +3507,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3532,7 +3529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DABDA1F-4C3F-4324-8771-64A95267E252}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF5C045-17C1-4B04-B2ED-19A92298BB68}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3549,7 +3546,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3662,7 +3659,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3677,7 +3674,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3692,7 +3689,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,7 +3710,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3722,13 +3719,13 @@
         <v>978</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3737,13 +3734,13 @@
         <v>978</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,7 +3758,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>33</v>
@@ -3773,10 +3770,10 @@
         <v>429252</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>26</v>
@@ -3788,10 +3785,10 @@
         <v>883398</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>26</v>
@@ -3868,7 +3865,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3883,7 +3880,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3913,13 +3910,13 @@
         <v>2805</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -3928,13 +3925,13 @@
         <v>5879</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -3943,13 +3940,13 @@
         <v>8684</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>179</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +3961,13 @@
         <v>684282</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H10" s="7">
         <v>565</v>
@@ -3979,13 +3976,13 @@
         <v>604376</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M10" s="7">
         <v>1229</v>
@@ -3994,13 +3991,13 @@
         <v>1288658</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,7 +4053,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4074,7 +4071,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4089,7 +4086,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4119,13 +4116,13 @@
         <v>3844</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -4134,13 +4131,13 @@
         <v>28842</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -4149,13 +4146,13 @@
         <v>32687</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4170,13 +4167,13 @@
         <v>678019</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H14" s="7">
         <v>640</v>
@@ -4185,13 +4182,13 @@
         <v>680732</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M14" s="7">
         <v>1288</v>
@@ -4200,13 +4197,13 @@
         <v>1358750</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,7 +4259,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4280,7 +4277,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4295,7 +4292,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4310,7 +4307,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,13 +4322,13 @@
         <v>10647</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H17" s="7">
         <v>35</v>
@@ -4340,13 +4337,13 @@
         <v>38187</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -4355,13 +4352,13 @@
         <v>48835</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,13 +4373,13 @@
         <v>603970</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H18" s="7">
         <v>502</v>
@@ -4391,13 +4388,13 @@
         <v>575030</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M18" s="7">
         <v>1041</v>
@@ -4406,13 +4403,13 @@
         <v>1178999</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,7 +4465,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4486,7 +4483,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4501,7 +4498,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4516,7 +4513,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4528,13 @@
         <v>14355</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H21" s="7">
         <v>54</v>
@@ -4546,13 +4543,13 @@
         <v>58737</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M21" s="7">
         <v>68</v>
@@ -4561,13 +4558,13 @@
         <v>73092</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,13 +4579,13 @@
         <v>415074</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H22" s="7">
         <v>352</v>
@@ -4597,13 +4594,13 @@
         <v>389063</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M22" s="7">
         <v>731</v>
@@ -4612,13 +4609,13 @@
         <v>804137</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,7 +4671,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4707,7 +4704,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4722,7 +4719,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4734,13 @@
         <v>75239</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H25" s="7">
         <v>196</v>
@@ -4752,13 +4749,13 @@
         <v>213209</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M25" s="7">
         <v>265</v>
@@ -4767,13 +4764,13 @@
         <v>288448</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4785,13 @@
         <v>484398</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H26" s="7">
         <v>498</v>
@@ -4803,13 +4800,13 @@
         <v>529766</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="M26" s="7">
         <v>933</v>
@@ -4818,13 +4815,13 @@
         <v>1014164</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,7 +4895,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4913,7 +4910,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4928,7 +4925,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4940,13 @@
         <v>106891</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>267</v>
+        <v>193</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H29" s="7">
         <v>318</v>
@@ -4958,13 +4955,13 @@
         <v>345832</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M29" s="7">
         <v>416</v>
@@ -4973,13 +4970,13 @@
         <v>452724</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,13 +4991,13 @@
         <v>3319888</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>277</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>2977</v>
@@ -5009,28 +5006,28 @@
         <v>3208220</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="M30" s="7">
         <v>6088</v>
       </c>
       <c r="N30" s="7">
-        <v>6528107</v>
+        <v>6528106</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,7 +5069,7 @@
         <v>6504</v>
       </c>
       <c r="N31" s="7">
-        <v>6980831</v>
+        <v>6980830</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>33</v>
@@ -5086,7 +5083,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -5108,7 +5105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D618C783-DACB-4E9C-92FF-85F499C6877B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2C4267-B70F-4606-ACB8-564C68D205FE}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5125,7 +5122,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5238,7 +5235,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5253,7 +5250,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5268,7 +5265,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,7 +5286,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5304,7 +5301,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -5313,13 +5310,13 @@
         <v>1112</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5334,10 +5331,10 @@
         <v>418351</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -5352,7 +5349,7 @@
         <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>33</v>
@@ -5364,10 +5361,10 @@
         <v>814106</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>26</v>
@@ -5444,7 +5441,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5459,7 +5456,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>179</v>
+        <v>286</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5489,13 +5486,13 @@
         <v>951</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>293</v>
+        <v>208</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -5504,13 +5501,13 @@
         <v>7152</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -5519,13 +5516,13 @@
         <v>8104</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,10 +5537,10 @@
         <v>589545</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>300</v>
+        <v>218</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -5555,13 +5552,13 @@
         <v>556392</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="M10" s="7">
         <v>1138</v>
@@ -5570,13 +5567,13 @@
         <v>1145936</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5632,7 +5629,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5650,7 +5647,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5665,7 +5662,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5701,7 +5698,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -5710,13 +5707,13 @@
         <v>17328</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -5725,13 +5722,13 @@
         <v>17328</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,7 +5746,7 @@
         <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>33</v>
@@ -5761,13 +5758,13 @@
         <v>644058</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="M14" s="7">
         <v>1285</v>
@@ -5776,13 +5773,13 @@
         <v>1313155</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,7 +5835,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5856,7 +5853,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>179</v>
+        <v>286</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5886,7 +5883,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,13 +5898,13 @@
         <v>11297</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>211</v>
+        <v>314</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>321</v>
+        <v>59</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -5916,13 +5913,13 @@
         <v>25052</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>316</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -5931,13 +5928,13 @@
         <v>36348</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>324</v>
+        <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,13 +5949,13 @@
         <v>634751</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>328</v>
+        <v>67</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>221</v>
+        <v>319</v>
       </c>
       <c r="H18" s="7">
         <v>579</v>
@@ -5967,28 +5964,28 @@
         <v>624025</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>96</v>
+        <v>321</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="M18" s="7">
         <v>1151</v>
       </c>
       <c r="N18" s="7">
-        <v>1258778</v>
+        <v>1258777</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>331</v>
+        <v>74</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6030,7 +6027,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>33</v>
@@ -6044,7 +6041,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6062,7 +6059,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6077,7 +6074,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6092,7 +6089,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6104,13 @@
         <v>13978</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="H21" s="7">
         <v>43</v>
@@ -6122,13 +6119,13 @@
         <v>48484</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="M21" s="7">
         <v>55</v>
@@ -6137,13 +6134,13 @@
         <v>62462</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,13 +6155,13 @@
         <v>463940</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="H22" s="7">
         <v>390</v>
@@ -6173,13 +6170,13 @@
         <v>448365</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>89</v>
+        <v>338</v>
       </c>
       <c r="M22" s="7">
         <v>802</v>
@@ -6188,13 +6185,13 @@
         <v>912305</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,7 +6247,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6268,7 +6265,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6283,7 +6280,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6313,13 +6310,13 @@
         <v>54374</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>342</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="H25" s="7">
         <v>130</v>
@@ -6328,13 +6325,13 @@
         <v>155107</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="M25" s="7">
         <v>188</v>
@@ -6343,13 +6340,13 @@
         <v>209482</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6364,13 +6361,13 @@
         <v>536954</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>156</v>
+        <v>351</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="H26" s="7">
         <v>525</v>
@@ -6379,13 +6376,13 @@
         <v>622824</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="M26" s="7">
         <v>1094</v>
@@ -6394,13 +6391,13 @@
         <v>1159777</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,7 +6471,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6489,7 +6486,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6504,7 +6501,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6519,13 +6516,13 @@
         <v>81712</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>217</v>
+        <v>362</v>
       </c>
       <c r="H29" s="7">
         <v>221</v>
@@ -6534,13 +6531,13 @@
         <v>253123</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M29" s="7">
         <v>303</v>
@@ -6549,13 +6546,13 @@
         <v>334835</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6570,13 +6567,13 @@
         <v>3312638</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>227</v>
+        <v>370</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H30" s="7">
         <v>3117</v>
@@ -6585,13 +6582,13 @@
         <v>3291419</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M30" s="7">
         <v>6266</v>
@@ -6600,13 +6597,13 @@
         <v>6604057</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6662,7 +6659,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -6684,7 +6681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7814FB7-7731-41F7-B86D-9EA1D33AB3E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC3C59D-13C9-4EDD-AD95-40790661F1D6}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6701,7 +6698,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6814,7 +6811,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>384</v>
+        <v>44</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6829,7 +6826,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6844,7 +6841,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6859,13 +6856,13 @@
         <v>3422</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -6874,13 +6871,13 @@
         <v>4938</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -6889,13 +6886,13 @@
         <v>8360</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6910,10 +6907,10 @@
         <v>374257</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -6925,10 +6922,10 @@
         <v>350019</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>26</v>
@@ -6940,13 +6937,13 @@
         <v>724276</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>191</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7020,7 +7017,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -7029,13 +7026,13 @@
         <v>637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -7044,7 +7041,7 @@
         <v>637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
@@ -7065,13 +7062,13 @@
         <v>1292</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -7080,13 +7077,13 @@
         <v>5354</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -7095,13 +7092,13 @@
         <v>6646</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7116,10 +7113,10 @@
         <v>427104</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -7131,13 +7128,13 @@
         <v>493063</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="M10" s="7">
         <v>755</v>
@@ -7146,13 +7143,13 @@
         <v>920168</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>409</v>
+        <v>312</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>411</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7208,7 +7205,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7226,7 +7223,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7235,13 +7232,13 @@
         <v>27690</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7250,13 +7247,13 @@
         <v>27690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7271,13 +7268,13 @@
         <v>6107</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>416</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -7286,13 +7283,13 @@
         <v>19051</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -7301,13 +7298,13 @@
         <v>25158</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7322,13 +7319,13 @@
         <v>548624</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>423</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H14" s="7">
         <v>815</v>
@@ -7337,13 +7334,13 @@
         <v>563547</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="M14" s="7">
         <v>1354</v>
@@ -7352,13 +7349,13 @@
         <v>1112171</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>318</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7414,7 +7411,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7432,7 +7429,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7441,13 +7438,13 @@
         <v>407</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7456,13 +7453,13 @@
         <v>407</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7477,13 +7474,13 @@
         <v>27454</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>63</v>
+        <v>425</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="H17" s="7">
         <v>89</v>
@@ -7492,13 +7489,13 @@
         <v>62798</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="M17" s="7">
         <v>115</v>
@@ -7507,13 +7504,13 @@
         <v>90252</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,13 +7525,13 @@
         <v>695433</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>73</v>
+        <v>434</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H18" s="7">
         <v>1047</v>
@@ -7543,13 +7540,13 @@
         <v>680968</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="M18" s="7">
         <v>1685</v>
@@ -7558,13 +7555,13 @@
         <v>1376402</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7620,7 +7617,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7638,7 +7635,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -7647,13 +7644,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7662,13 +7659,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7683,13 +7680,13 @@
         <v>30006</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>67</v>
+        <v>446</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="H21" s="7">
         <v>96</v>
@@ -7698,13 +7695,13 @@
         <v>60053</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>454</v>
+        <v>332</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="M21" s="7">
         <v>129</v>
@@ -7713,13 +7710,13 @@
         <v>90059</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7734,13 +7731,13 @@
         <v>569080</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>75</v>
+        <v>454</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H22" s="7">
         <v>902</v>
@@ -7749,13 +7746,13 @@
         <v>532659</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="M22" s="7">
         <v>1531</v>
@@ -7764,13 +7761,13 @@
         <v>1101739</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>351</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7826,7 +7823,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7859,7 +7856,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7874,7 +7871,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7889,13 +7886,13 @@
         <v>79093</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H25" s="7">
         <v>338</v>
@@ -7904,13 +7901,13 @@
         <v>182213</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="M25" s="7">
         <v>464</v>
@@ -7919,13 +7916,13 @@
         <v>261306</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>234</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7940,13 +7937,13 @@
         <v>617884</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="H26" s="7">
         <v>1367</v>
@@ -7955,13 +7952,13 @@
         <v>842797</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="M26" s="7">
         <v>2268</v>
@@ -7970,13 +7967,13 @@
         <v>1460681</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8050,7 +8047,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -8059,13 +8056,13 @@
         <v>31497</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -8074,13 +8071,13 @@
         <v>31497</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8095,13 +8092,13 @@
         <v>147374</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>487</v>
       </c>
       <c r="H29" s="7">
         <v>559</v>
@@ -8110,7 +8107,7 @@
         <v>334408</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>215</v>
+        <v>487</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>488</v>
@@ -8176,13 +8173,13 @@
         <v>6695438</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8238,7 +8235,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1418-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1418-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6D7CDF9-A7FA-4A27-883D-AF82760FA560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{332DC7A0-0F9F-4AB8-A325-2C343A257182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0C03BE2C-5253-42DA-A1E6-F39C80C8D945}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E283DB24-A469-421B-A165-99C4F959F0BA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="520">
   <si>
     <t>Población con diagnóstico de mala circulación en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,84%</t>
@@ -191,7 +191,7 @@
     <t>98,95%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>1,92%</t>
@@ -242,7 +242,7 @@
     <t>97,23%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>5,07%</t>
@@ -299,7 +299,7 @@
     <t>94,15%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>11,64%</t>
@@ -356,61 +356,118 @@
     <t>90,3%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
   </si>
   <si>
     <t>31,52%</t>
   </si>
   <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
   </si>
   <si>
     <t>68,48%</t>
   </si>
   <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
   </si>
   <si>
     <t>5,47%</t>
@@ -641,9 +698,6 @@
     <t>10,05%</t>
   </si>
   <si>
-    <t>16,51%</t>
-  </si>
-  <si>
     <t>8,33%</t>
   </si>
   <si>
@@ -665,9 +719,6 @@
     <t>86,88%</t>
   </si>
   <si>
-    <t>83,49%</t>
-  </si>
-  <si>
     <t>89,95%</t>
   </si>
   <si>
@@ -680,58 +731,112 @@
     <t>93,37%</t>
   </si>
   <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
   </si>
   <si>
     <t>3,12%</t>
@@ -1007,58 +1112,100 @@
     <t>95,03%</t>
   </si>
   <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
   </si>
   <si>
     <t>2,41%</t>
@@ -1112,316 +1259,346 @@
     <t>Población con diagnóstico de mala circulación en 2023 (Tasa respuesta: 99,74%)</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>98,86%</t>
   </si>
   <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
   </si>
   <si>
     <t>2,17%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
   </si>
   <si>
     <t>97,83%</t>
   </si>
   <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
   </si>
   <si>
     <t>8,36%</t>
   </si>
   <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
   </si>
   <si>
     <t>91,64%</t>
   </si>
   <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
   </si>
 </sst>
 </file>
@@ -1833,8 +2010,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09576C62-082D-4DD8-8608-D7F817458955}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FA30C5-1E70-4EF3-8860-2D8F66DFE726}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2726,10 +2903,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="D19" s="7">
-        <v>88495</v>
+        <v>43598</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -2741,10 +2918,10 @@
         <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="I19" s="7">
-        <v>186799</v>
+        <v>81558</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>109</v>
@@ -2756,10 +2933,10 @@
         <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>274</v>
+        <v>133</v>
       </c>
       <c r="N19" s="7">
-        <v>275295</v>
+        <v>125156</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>112</v>
@@ -2777,10 +2954,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>429</v>
+        <v>257</v>
       </c>
       <c r="D20" s="7">
-        <v>413971</v>
+        <v>248985</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>115</v>
@@ -2792,10 +2969,10 @@
         <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>481</v>
+        <v>284</v>
       </c>
       <c r="I20" s="7">
-        <v>490043</v>
+        <v>261376</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>118</v>
@@ -2807,10 +2984,10 @@
         <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>910</v>
+        <v>541</v>
       </c>
       <c r="N20" s="7">
-        <v>904013</v>
+        <v>510361</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>121</v>
@@ -2828,10 +3005,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2843,10 +3020,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2858,10 +3035,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2875,55 +3052,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>183</v>
+        <v>48</v>
       </c>
       <c r="D22" s="7">
-        <v>179083</v>
+        <v>44897</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
-        <v>331</v>
+        <v>93</v>
       </c>
       <c r="I22" s="7">
-        <v>343152</v>
+        <v>105242</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>514</v>
+        <v>141</v>
       </c>
       <c r="N22" s="7">
-        <v>522235</v>
+        <v>150139</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,49 +3109,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3031</v>
+        <v>172</v>
       </c>
       <c r="D23" s="7">
-        <v>3097461</v>
+        <v>164986</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>2966</v>
+        <v>197</v>
       </c>
       <c r="I23" s="7">
-        <v>3036046</v>
+        <v>228666</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>5997</v>
+        <v>369</v>
       </c>
       <c r="N23" s="7">
-        <v>6133505</v>
+        <v>393652</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,63 +3160,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>183</v>
+      </c>
+      <c r="D25" s="7">
+        <v>179083</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>331</v>
+      </c>
+      <c r="I25" s="7">
+        <v>343152</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>514</v>
+      </c>
+      <c r="N25" s="7">
+        <v>522235</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3031</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3097460</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2966</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3036045</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5997</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6133506</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3052,8 +3385,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32F0201-C896-41A9-9DD8-8476171BC063}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DFC674A-991B-48B0-BEE2-23706E78BD88}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3069,7 +3402,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3179,10 +3512,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3191,13 +3524,13 @@
         <v>978</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3206,13 +3539,13 @@
         <v>978</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,7 +3563,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -3242,10 +3575,10 @@
         <v>429252</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -3257,10 +3590,10 @@
         <v>883398</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -3331,13 +3664,13 @@
         <v>2805</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -3346,13 +3679,13 @@
         <v>5879</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -3361,13 +3694,13 @@
         <v>8684</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,13 +3715,13 @@
         <v>684282</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>565</v>
@@ -3397,13 +3730,13 @@
         <v>604376</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>1229</v>
@@ -3412,13 +3745,13 @@
         <v>1288658</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,13 +3819,13 @@
         <v>3844</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -3501,13 +3834,13 @@
         <v>28842</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -3516,7 +3849,7 @@
         <v>32687</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>36</v>
@@ -3537,13 +3870,13 @@
         <v>678019</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="H11" s="7">
         <v>640</v>
@@ -3552,13 +3885,13 @@
         <v>680732</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>1288</v>
@@ -3567,7 +3900,7 @@
         <v>1358750</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>60</v>
@@ -3647,7 +3980,7 @@
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -3656,13 +3989,13 @@
         <v>38187</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -3674,10 +4007,10 @@
         <v>54</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,7 +4028,7 @@
         <v>42</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>41</v>
@@ -3707,13 +4040,13 @@
         <v>575030</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="M14" s="7">
         <v>1041</v>
@@ -3725,10 +4058,10 @@
         <v>63</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,13 +4129,13 @@
         <v>14355</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
@@ -3811,13 +4144,13 @@
         <v>58737</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>68</v>
@@ -3826,13 +4159,13 @@
         <v>73092</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,13 +4180,13 @@
         <v>415074</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="H17" s="7">
         <v>352</v>
@@ -3862,13 +4195,13 @@
         <v>389063</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>123</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>731</v>
@@ -3877,13 +4210,13 @@
         <v>804137</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,49 +4278,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D19" s="7">
-        <v>75239</v>
+        <v>31723</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="H19" s="7">
-        <v>196</v>
+        <v>71</v>
       </c>
       <c r="I19" s="7">
-        <v>213209</v>
+        <v>73659</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="M19" s="7">
-        <v>265</v>
+        <v>100</v>
       </c>
       <c r="N19" s="7">
-        <v>288448</v>
+        <v>105382</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,49 +4329,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>435</v>
+        <v>253</v>
       </c>
       <c r="D20" s="7">
-        <v>484398</v>
+        <v>278063</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="H20" s="7">
-        <v>498</v>
+        <v>273</v>
       </c>
       <c r="I20" s="7">
-        <v>529766</v>
+        <v>280337</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="M20" s="7">
-        <v>933</v>
+        <v>526</v>
       </c>
       <c r="N20" s="7">
-        <v>1014164</v>
+        <v>558400</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,10 +4380,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4062,10 +4395,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4077,10 +4410,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4094,55 +4427,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="D22" s="7">
-        <v>106891</v>
+        <v>43516</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="H22" s="7">
-        <v>318</v>
+        <v>125</v>
       </c>
       <c r="I22" s="7">
-        <v>345832</v>
+        <v>139550</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="M22" s="7">
-        <v>416</v>
+        <v>165</v>
       </c>
       <c r="N22" s="7">
-        <v>452724</v>
+        <v>183066</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,49 +4484,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3111</v>
+        <v>182</v>
       </c>
       <c r="D23" s="7">
-        <v>3319888</v>
+        <v>206335</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="H23" s="7">
-        <v>2977</v>
+        <v>225</v>
       </c>
       <c r="I23" s="7">
-        <v>3208220</v>
+        <v>249429</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="M23" s="7">
-        <v>6088</v>
+        <v>407</v>
       </c>
       <c r="N23" s="7">
-        <v>6528106</v>
+        <v>455764</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,63 +4535,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>98</v>
+      </c>
+      <c r="D25" s="7">
+        <v>106891</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H25" s="7">
+        <v>318</v>
+      </c>
+      <c r="I25" s="7">
+        <v>345832</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="M25" s="7">
+        <v>416</v>
+      </c>
+      <c r="N25" s="7">
+        <v>452724</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3111</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3319888</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2977</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3208220</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6088</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6528107</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3295</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3554052</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6504</v>
       </c>
-      <c r="N24" s="7">
-        <v>6980830</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>6980831</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4271,8 +4760,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4CD097-4F8B-441E-A584-F8CAF03CFC8F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F9F213-09DF-4E73-96DE-2D97924F811D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4288,7 +4777,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4395,13 +4884,13 @@
         <v>1112</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4413,10 +4902,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4425,13 +4914,13 @@
         <v>1112</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,10 +4935,10 @@
         <v>418351</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -4464,7 +4953,7 @@
         <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -4476,10 +4965,10 @@
         <v>814106</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -4550,13 +5039,13 @@
         <v>951</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4565,13 +5054,13 @@
         <v>7152</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -4580,13 +5069,13 @@
         <v>8104</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,10 +5090,10 @@
         <v>589545</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
@@ -4616,13 +5105,13 @@
         <v>556392</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="M8" s="7">
         <v>1138</v>
@@ -4631,10 +5120,10 @@
         <v>1145936</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>43</v>
@@ -4708,10 +5197,10 @@
         <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -4720,13 +5209,13 @@
         <v>17328</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -4735,13 +5224,13 @@
         <v>17328</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,7 +5248,7 @@
         <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -4771,13 +5260,13 @@
         <v>644058</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="M11" s="7">
         <v>1285</v>
@@ -4786,13 +5275,13 @@
         <v>1313155</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4860,13 +5349,13 @@
         <v>11297</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -4875,13 +5364,13 @@
         <v>25052</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -4890,13 +5379,13 @@
         <v>36348</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,13 +5400,13 @@
         <v>634751</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="H14" s="7">
         <v>579</v>
@@ -4926,13 +5415,13 @@
         <v>624025</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="M14" s="7">
         <v>1151</v>
@@ -4941,13 +5430,13 @@
         <v>1258777</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,13 +5504,13 @@
         <v>13978</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
@@ -5030,13 +5519,13 @@
         <v>48484</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -5045,13 +5534,13 @@
         <v>62462</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,13 +5555,13 @@
         <v>463940</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="H17" s="7">
         <v>390</v>
@@ -5081,13 +5570,13 @@
         <v>448365</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="M17" s="7">
         <v>802</v>
@@ -5096,13 +5585,13 @@
         <v>912305</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,49 +5653,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="D19" s="7">
-        <v>54374</v>
+        <v>20740</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="H19" s="7">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="I19" s="7">
-        <v>155107</v>
+        <v>60635</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="M19" s="7">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="N19" s="7">
-        <v>209482</v>
+        <v>81375</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,49 +5704,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>569</v>
+        <v>305</v>
       </c>
       <c r="D20" s="7">
-        <v>536954</v>
+        <v>313590</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>333</v>
       </c>
       <c r="H20" s="7">
-        <v>525</v>
+        <v>297</v>
       </c>
       <c r="I20" s="7">
-        <v>622824</v>
+        <v>317127</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="M20" s="7">
-        <v>1094</v>
+        <v>602</v>
       </c>
       <c r="N20" s="7">
-        <v>1159777</v>
+        <v>630717</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,10 +5755,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5281,10 +5770,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5296,10 +5785,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5313,55 +5802,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="D22" s="7">
-        <v>81712</v>
+        <v>33634</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="H22" s="7">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="I22" s="7">
-        <v>253123</v>
+        <v>94472</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>131</v>
+        <v>376</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="M22" s="7">
-        <v>303</v>
+        <v>111</v>
       </c>
       <c r="N22" s="7">
-        <v>334835</v>
+        <v>128107</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,49 +5859,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3149</v>
+        <v>264</v>
       </c>
       <c r="D23" s="7">
-        <v>3312638</v>
+        <v>223364</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="H23" s="7">
-        <v>3117</v>
+        <v>228</v>
       </c>
       <c r="I23" s="7">
-        <v>3291419</v>
+        <v>305697</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>141</v>
+        <v>384</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="M23" s="7">
-        <v>6266</v>
+        <v>492</v>
       </c>
       <c r="N23" s="7">
-        <v>6604057</v>
+        <v>529060</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5421,63 +5910,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>82</v>
+      </c>
+      <c r="D25" s="7">
+        <v>81712</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H25" s="7">
+        <v>221</v>
+      </c>
+      <c r="I25" s="7">
+        <v>253123</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="M25" s="7">
+        <v>303</v>
+      </c>
+      <c r="N25" s="7">
+        <v>334835</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3149</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3312638</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3117</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3291419</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6266</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6604057</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5490,8 +6135,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD8A8CD-F865-4DC9-AC78-71E71170BBCA}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10D2285-067B-442B-AD9F-88BFACE0C149}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5507,7 +6152,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5611,46 +6256,46 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>3422</v>
+        <v>3823</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>4938</v>
+        <v>4309</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>358</v>
+        <v>407</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>359</v>
+        <v>408</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>8360</v>
+        <v>8132</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>361</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>362</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,13 +6307,13 @@
         <v>171</v>
       </c>
       <c r="D5" s="7">
-        <v>374257</v>
+        <v>396164</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>28</v>
+        <v>186</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -5677,13 +6322,13 @@
         <v>205</v>
       </c>
       <c r="I5" s="7">
-        <v>350019</v>
+        <v>308891</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>364</v>
+        <v>412</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -5692,16 +6337,16 @@
         <v>376</v>
       </c>
       <c r="N5" s="7">
-        <v>724276</v>
+        <v>705055</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>367</v>
+        <v>415</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>368</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5713,7 +6358,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5728,7 +6373,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5743,7 +6388,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5766,46 +6411,46 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1292</v>
+        <v>1129</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>5354</v>
+        <v>5113</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>371</v>
+        <v>33</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>6646</v>
+        <v>6242</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>373</v>
+        <v>180</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>361</v>
+        <v>419</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5817,13 +6462,13 @@
         <v>301</v>
       </c>
       <c r="D8" s="7">
-        <v>427104</v>
+        <v>422418</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
@@ -5832,31 +6477,31 @@
         <v>454</v>
       </c>
       <c r="I8" s="7">
-        <v>493064</v>
+        <v>506230</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>378</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>755</v>
       </c>
       <c r="N8" s="7">
-        <v>920168</v>
+        <v>928648</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>379</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>368</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,7 +6513,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5883,7 +6528,7 @@
         <v>459</v>
       </c>
       <c r="I9" s="7">
-        <v>498418</v>
+        <v>511343</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5898,7 +6543,7 @@
         <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>926814</v>
+        <v>934890</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5921,46 +6566,46 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>6107</v>
+        <v>5455</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>426</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
       </c>
       <c r="I10" s="7">
-        <v>19051</v>
+        <v>17845</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
       </c>
       <c r="N10" s="7">
-        <v>25158</v>
+        <v>23301</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>433</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,46 +6617,46 @@
         <v>539</v>
       </c>
       <c r="D11" s="7">
-        <v>548624</v>
+        <v>528418</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>435</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>389</v>
+        <v>437</v>
       </c>
       <c r="H11" s="7">
         <v>815</v>
       </c>
       <c r="I11" s="7">
-        <v>563547</v>
+        <v>523788</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="M11" s="7">
         <v>1354</v>
       </c>
       <c r="N11" s="7">
-        <v>1112172</v>
+        <v>1052205</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,7 +6668,7 @@
         <v>544</v>
       </c>
       <c r="D12" s="7">
-        <v>554731</v>
+        <v>533873</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6038,7 +6683,7 @@
         <v>844</v>
       </c>
       <c r="I12" s="7">
-        <v>582598</v>
+        <v>541633</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6053,7 +6698,7 @@
         <v>1388</v>
       </c>
       <c r="N12" s="7">
-        <v>1137330</v>
+        <v>1075506</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6076,46 +6721,46 @@
         <v>26</v>
       </c>
       <c r="D13" s="7">
-        <v>27454</v>
+        <v>26025</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>359</v>
+        <v>446</v>
       </c>
       <c r="H13" s="7">
         <v>89</v>
       </c>
       <c r="I13" s="7">
-        <v>62798</v>
+        <v>56897</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>399</v>
+        <v>449</v>
       </c>
       <c r="M13" s="7">
         <v>115</v>
       </c>
       <c r="N13" s="7">
-        <v>90252</v>
+        <v>82922</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>58</v>
+        <v>451</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6127,46 +6772,46 @@
         <v>638</v>
       </c>
       <c r="D14" s="7">
-        <v>695433</v>
+        <v>860705</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>365</v>
+        <v>454</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="H14" s="7">
         <v>1047</v>
       </c>
       <c r="I14" s="7">
-        <v>680969</v>
+        <v>652783</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="M14" s="7">
         <v>1685</v>
       </c>
       <c r="N14" s="7">
-        <v>1376402</v>
+        <v>1513488</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>65</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6178,7 +6823,7 @@
         <v>664</v>
       </c>
       <c r="D15" s="7">
-        <v>722887</v>
+        <v>886730</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6193,7 +6838,7 @@
         <v>1136</v>
       </c>
       <c r="I15" s="7">
-        <v>743767</v>
+        <v>709680</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6208,7 +6853,7 @@
         <v>1800</v>
       </c>
       <c r="N15" s="7">
-        <v>1466654</v>
+        <v>1596410</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6231,46 +6876,46 @@
         <v>33</v>
       </c>
       <c r="D16" s="7">
-        <v>30006</v>
+        <v>28627</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="H16" s="7">
         <v>96</v>
       </c>
       <c r="I16" s="7">
-        <v>60053</v>
+        <v>55246</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>412</v>
+        <v>146</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="M16" s="7">
         <v>129</v>
       </c>
       <c r="N16" s="7">
-        <v>90059</v>
+        <v>83873</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6282,46 +6927,46 @@
         <v>629</v>
       </c>
       <c r="D17" s="7">
-        <v>569080</v>
+        <v>531610</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="H17" s="7">
         <v>902</v>
       </c>
       <c r="I17" s="7">
-        <v>532659</v>
+        <v>488851</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>421</v>
+        <v>155</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="M17" s="7">
         <v>1531</v>
       </c>
       <c r="N17" s="7">
-        <v>1101739</v>
+        <v>1020460</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6333,7 +6978,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6348,7 +6993,7 @@
         <v>998</v>
       </c>
       <c r="I18" s="7">
-        <v>592712</v>
+        <v>544097</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6363,7 +7008,7 @@
         <v>1660</v>
       </c>
       <c r="N18" s="7">
-        <v>1191798</v>
+        <v>1104333</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6383,49 +7028,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="D19" s="7">
-        <v>79093</v>
+        <v>30608</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>427</v>
+        <v>219</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="H19" s="7">
-        <v>338</v>
+        <v>104</v>
       </c>
       <c r="I19" s="7">
-        <v>182213</v>
+        <v>51372</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="M19" s="7">
-        <v>464</v>
+        <v>154</v>
       </c>
       <c r="N19" s="7">
-        <v>261306</v>
+        <v>81979</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>326</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,49 +7079,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>901</v>
+        <v>519</v>
       </c>
       <c r="D20" s="7">
-        <v>617884</v>
+        <v>336839</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>435</v>
+        <v>227</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
       <c r="H20" s="7">
-        <v>1367</v>
+        <v>721</v>
       </c>
       <c r="I20" s="7">
-        <v>842797</v>
+        <v>556117</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>439</v>
+        <v>489</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="M20" s="7">
-        <v>2268</v>
+        <v>1240</v>
       </c>
       <c r="N20" s="7">
-        <v>1460681</v>
+        <v>892957</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>441</v>
+        <v>491</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>336</v>
+        <v>492</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,10 +7130,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1027</v>
+        <v>569</v>
       </c>
       <c r="D21" s="7">
-        <v>696977</v>
+        <v>367447</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6500,10 +7145,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1705</v>
+        <v>825</v>
       </c>
       <c r="I21" s="7">
-        <v>1025010</v>
+        <v>607489</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6515,10 +7160,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2732</v>
+        <v>1394</v>
       </c>
       <c r="N21" s="7">
-        <v>1721987</v>
+        <v>974936</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6532,55 +7177,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="D22" s="7">
-        <v>147374</v>
+        <v>43241</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>443</v>
+        <v>92</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
       <c r="H22" s="7">
-        <v>559</v>
+        <v>234</v>
       </c>
       <c r="I22" s="7">
-        <v>334408</v>
+        <v>111897</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>446</v>
+        <v>496</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>447</v>
+        <v>376</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="M22" s="7">
-        <v>751</v>
+        <v>310</v>
       </c>
       <c r="N22" s="7">
-        <v>481781</v>
+        <v>155139</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6589,49 +7234,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3179</v>
+        <v>382</v>
       </c>
       <c r="D23" s="7">
-        <v>3232382</v>
+        <v>239518</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>452</v>
+        <v>100</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>453</v>
+        <v>501</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="H23" s="7">
-        <v>4790</v>
+        <v>646</v>
       </c>
       <c r="I23" s="7">
-        <v>3463054</v>
+        <v>313321</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>455</v>
+        <v>503</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>457</v>
+        <v>384</v>
       </c>
       <c r="M23" s="7">
-        <v>7969</v>
+        <v>1028</v>
       </c>
       <c r="N23" s="7">
-        <v>6695437</v>
+        <v>552838</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>458</v>
+        <v>505</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>459</v>
+        <v>506</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>460</v>
+        <v>507</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6640,63 +7285,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>880</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425218</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N24" s="7">
+        <v>707977</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>192</v>
+      </c>
+      <c r="D25" s="7">
+        <v>138907</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="H25" s="7">
+        <v>559</v>
+      </c>
+      <c r="I25" s="7">
+        <v>302680</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="M25" s="7">
+        <v>751</v>
+      </c>
+      <c r="N25" s="7">
+        <v>441588</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3179</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3315673</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4790</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3349979</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7969</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6665651</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3371</v>
       </c>
-      <c r="D24" s="7">
-        <v>3379756</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3454580</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5349</v>
       </c>
-      <c r="I24" s="7">
-        <v>3797462</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3652659</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8720</v>
       </c>
-      <c r="N24" s="7">
-        <v>7177218</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>7107239</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
